--- a/biology/Histoire de la zoologie et de la botanique/Société_linnéenne_de_New_York/Société_linnéenne_de_New_York.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_linnéenne_de_New_York/Société_linnéenne_de_New_York.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_de_New_York</t>
+          <t>Société_linnéenne_de_New_York</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société linnéenne de New York (Linnean Society of New York en anglais) est une société savante faisant partie des nombreuses sociétés linnéennes ainsi nommées en hommage au naturaliste suédois Carl von Linné (1707-1778).
 Elle fut fondée à New York, en 1878, par un groupe de naturalistes. Le zoologiste Clinton Hart Merriam (1855-1942) en fut le premier président.
